--- a/一起学SLAM成果文档/ORB-SLAM2模块分配.xlsx
+++ b/一起学SLAM成果文档/ORB-SLAM2模块分配.xlsx
@@ -16,25 +16,197 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+  <si>
+    <t>吃肉的唐玄奘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-Youngo-dongdongzyd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶泳骏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会主义接班人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟钟钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目git地址：https://github.com/dianyunPCL/ORB-SLAM-bydianyunpcl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1）相机模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2）ORB-SLAM初始化模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（3）特征点提取模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4）特征点匹配模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（5）ORB-SLAM关键帧处理模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（6）局部优化地图的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（7）Covisibility graph essential graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（8）李代数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（9）回环检测模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（10）PNP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃肉的唐玄奘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10+陈标+Joe-CB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11+王宁+Wamdell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22-陈进-1936256565@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-Paul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11+alii+cbalii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05+杨代玉+yangdaiyu123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-小黎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-Youngo-dongdongzyd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09+Zyliu+liuzy1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12+徐子锋+xzf199358</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>019-彬记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03+刘林洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴宇环  吉大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-高浩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07+小伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">余红松 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33-小文-sguan691@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25+bill+billwang996</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-椿灰染紫色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>34+刘小东+nunuNNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>05+杨代玉+yangdaiyu123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22-陈进-1936256565@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25+bill+billwang996</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>019-彬记</t>
+    <t>黄金意志+东北大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>David Han</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-小袁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李健</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何若男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26+Wingtsan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朴-北京-VSLAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06+刘智远</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99-Schellong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦回幻城Lei</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -42,158 +214,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11+alii+cbalii</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09+Zyliu+liuzy1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26+Wingtsan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11+王宁+Wamdell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03+刘林洲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08-高浩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10+陈标+Joe-CB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12-椿灰染紫色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦回幻城Lei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06+刘智远</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>07+小伟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>99-Schellong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13-小黎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14-小袁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朴-北京-VSLAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MichaelTian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃肉的唐玄奘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20-Youngo-dongdongzyd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20-Paul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴宇环  吉大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>David Han</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小熊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶泳骏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社会主义接班人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钟钟钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33-小文-sguan691@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12+徐子锋+xzf199358</t>
-  </si>
-  <si>
-    <t>项目git地址：https://github.com/dianyunPCL/ORB-SLAM-bydianyunpcl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1）相机模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（2）ORB-SLAM初始化模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（3）特征点提取模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（4）特征点匹配模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（5）ORB-SLAM关键帧处理模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（6）局部优化地图的方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（7）Covisibility graph essential graph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（8）李代数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（9）回环检测模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（10）PNP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -201,7 +222,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,18 +238,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -251,15 +299,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -608,10 +659,10 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="41.88671875" customWidth="1"/>
     <col min="3" max="3" width="22.21875" style="2" customWidth="1"/>
@@ -620,175 +671,189 @@
     <col min="6" max="7" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.600000000000001" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="G9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
         <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E9" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -798,7 +863,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -811,7 +876,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
